--- a/natmiOut/OldD7/LR-pairs_lrc2p/Thbs1-Cd47.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Thbs1-Cd47.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H2">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I2">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J2">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.5888626192136</v>
+        <v>46.33695966666667</v>
       </c>
       <c r="N2">
-        <v>45.5888626192136</v>
+        <v>139.010879</v>
       </c>
       <c r="O2">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="P2">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="Q2">
-        <v>613.6525032818911</v>
+        <v>872.292925920629</v>
       </c>
       <c r="R2">
-        <v>613.6525032818911</v>
+        <v>7850.636333285662</v>
       </c>
       <c r="S2">
-        <v>0.01138651629765759</v>
+        <v>0.01372891155925208</v>
       </c>
       <c r="T2">
-        <v>0.01138651629765759</v>
+        <v>0.01372891155925208</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H3">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I3">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J3">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>84.0659401251386</v>
+        <v>84.50960033333332</v>
       </c>
       <c r="N3">
-        <v>84.0659401251386</v>
+        <v>253.528801</v>
       </c>
       <c r="O3">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="P3">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="Q3">
-        <v>1131.576258645137</v>
+        <v>1590.892606537931</v>
       </c>
       <c r="R3">
-        <v>1131.576258645137</v>
+        <v>14318.03345884138</v>
       </c>
       <c r="S3">
-        <v>0.02099675539852962</v>
+        <v>0.02503886394857068</v>
       </c>
       <c r="T3">
-        <v>0.02099675539852962</v>
+        <v>0.02503886394857067</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H4">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I4">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J4">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>64.79357614970181</v>
+        <v>72.52790466666666</v>
       </c>
       <c r="N4">
-        <v>64.79357614970181</v>
+        <v>217.583714</v>
       </c>
       <c r="O4">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="P4">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="Q4">
-        <v>872.1590738719819</v>
+        <v>1365.337273478699</v>
       </c>
       <c r="R4">
-        <v>872.1590738719819</v>
+        <v>12288.03546130829</v>
       </c>
       <c r="S4">
-        <v>0.01618318748099587</v>
+        <v>0.02148887617809826</v>
       </c>
       <c r="T4">
-        <v>0.01618318748099587</v>
+        <v>0.02148887617809825</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H5">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I5">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J5">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.4881879002395</v>
+        <v>29.06683666666666</v>
       </c>
       <c r="N5">
-        <v>26.4881879002395</v>
+        <v>87.20050999999998</v>
       </c>
       <c r="O5">
-        <v>0.1198904657774543</v>
+        <v>0.1250502234324667</v>
       </c>
       <c r="P5">
-        <v>0.1198904657774543</v>
+        <v>0.1250502234324667</v>
       </c>
       <c r="Q5">
-        <v>356.5463553708516</v>
+        <v>547.1829870931977</v>
       </c>
       <c r="R5">
-        <v>356.5463553708516</v>
+        <v>4924.646883838779</v>
       </c>
       <c r="S5">
-        <v>0.006615830400085039</v>
+        <v>0.008612046037862092</v>
       </c>
       <c r="T5">
-        <v>0.006615830400085039</v>
+        <v>0.00861204603786209</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H6">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I6">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J6">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.5888626192136</v>
+        <v>46.33695966666667</v>
       </c>
       <c r="N6">
-        <v>45.5888626192136</v>
+        <v>139.010879</v>
       </c>
       <c r="O6">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="P6">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="Q6">
-        <v>5506.982090290715</v>
+        <v>5644.80977460701</v>
       </c>
       <c r="R6">
-        <v>5506.982090290715</v>
+        <v>50803.28797146308</v>
       </c>
       <c r="S6">
-        <v>0.102183794552532</v>
+        <v>0.08884296990324655</v>
       </c>
       <c r="T6">
-        <v>0.102183794552532</v>
+        <v>0.08884296990324653</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H7">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I7">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J7">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>84.0659401251386</v>
+        <v>84.50960033333332</v>
       </c>
       <c r="N7">
-        <v>84.0659401251386</v>
+        <v>253.528801</v>
       </c>
       <c r="O7">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="P7">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="Q7">
-        <v>10154.88433083825</v>
+        <v>10295.03492334003</v>
       </c>
       <c r="R7">
-        <v>10154.88433083825</v>
+        <v>92655.31431006029</v>
       </c>
       <c r="S7">
-        <v>0.1884270907647574</v>
+        <v>0.1620322941548279</v>
       </c>
       <c r="T7">
-        <v>0.1884270907647574</v>
+        <v>0.1620322941548278</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H8">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I8">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J8">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.79357614970181</v>
+        <v>72.52790466666666</v>
       </c>
       <c r="N8">
-        <v>64.79357614970181</v>
+        <v>217.583714</v>
       </c>
       <c r="O8">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="P8">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="Q8">
-        <v>7826.847236849325</v>
+        <v>8835.414065560264</v>
       </c>
       <c r="R8">
-        <v>7826.847236849325</v>
+        <v>79518.72659004238</v>
       </c>
       <c r="S8">
-        <v>0.14522962612396</v>
+        <v>0.1390595001873098</v>
       </c>
       <c r="T8">
-        <v>0.14522962612396</v>
+        <v>0.1390595001873098</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H9">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I9">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J9">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.4881879002395</v>
+        <v>29.06683666666666</v>
       </c>
       <c r="N9">
-        <v>26.4881879002395</v>
+        <v>87.20050999999998</v>
       </c>
       <c r="O9">
-        <v>0.1198904657774543</v>
+        <v>0.1250502234324667</v>
       </c>
       <c r="P9">
-        <v>0.1198904657774543</v>
+        <v>0.1250502234324667</v>
       </c>
       <c r="Q9">
-        <v>3199.684484108991</v>
+        <v>3540.947980040585</v>
       </c>
       <c r="R9">
-        <v>3199.684484108991</v>
+        <v>31868.53182036527</v>
       </c>
       <c r="S9">
-        <v>0.05937115766793012</v>
+        <v>0.05573054671122358</v>
       </c>
       <c r="T9">
-        <v>0.05937115766793012</v>
+        <v>0.05573054671122357</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H10">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I10">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J10">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.5888626192136</v>
+        <v>46.33695966666667</v>
       </c>
       <c r="N10">
-        <v>45.5888626192136</v>
+        <v>139.010879</v>
       </c>
       <c r="O10">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="P10">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="Q10">
-        <v>3366.040443588758</v>
+        <v>4062.527371977072</v>
       </c>
       <c r="R10">
-        <v>3366.040443588758</v>
+        <v>36562.74634779364</v>
       </c>
       <c r="S10">
-        <v>0.06245794511473159</v>
+        <v>0.06393962089976751</v>
       </c>
       <c r="T10">
-        <v>0.06245794511473159</v>
+        <v>0.0639396208997675</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H11">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I11">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J11">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.0659401251386</v>
+        <v>84.50960033333332</v>
       </c>
       <c r="N11">
-        <v>84.0659401251386</v>
+        <v>253.528801</v>
       </c>
       <c r="O11">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="P11">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="Q11">
-        <v>6206.984296867915</v>
+        <v>7409.259628140528</v>
       </c>
       <c r="R11">
-        <v>6206.984296867915</v>
+        <v>66683.33665326475</v>
       </c>
       <c r="S11">
-        <v>0.1151725569073824</v>
+        <v>0.1166134301122763</v>
       </c>
       <c r="T11">
-        <v>0.1151725569073824</v>
+        <v>0.1166134301122763</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H12">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I12">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J12">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>64.79357614970181</v>
+        <v>72.52790466666666</v>
       </c>
       <c r="N12">
-        <v>64.79357614970181</v>
+        <v>217.583714</v>
       </c>
       <c r="O12">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="P12">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="Q12">
-        <v>4784.014894741553</v>
+        <v>6358.781414664896</v>
       </c>
       <c r="R12">
-        <v>4784.014894741553</v>
+        <v>57229.03273198407</v>
       </c>
       <c r="S12">
-        <v>0.08876890956344427</v>
+        <v>0.1000800821288486</v>
       </c>
       <c r="T12">
-        <v>0.08876890956344427</v>
+        <v>0.1000800821288486</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H13">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I13">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J13">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>26.4881879002395</v>
+        <v>29.06683666666666</v>
       </c>
       <c r="N13">
-        <v>26.4881879002395</v>
+        <v>87.20050999999998</v>
       </c>
       <c r="O13">
-        <v>0.1198904657774543</v>
+        <v>0.1250502234324667</v>
       </c>
       <c r="P13">
-        <v>0.1198904657774543</v>
+        <v>0.1250502234324667</v>
       </c>
       <c r="Q13">
-        <v>1955.747667896579</v>
+        <v>2548.393775176116</v>
       </c>
       <c r="R13">
-        <v>1955.747667896579</v>
+        <v>22935.54397658505</v>
       </c>
       <c r="S13">
-        <v>0.03628951658391678</v>
+        <v>0.04010885760722645</v>
       </c>
       <c r="T13">
-        <v>0.03628951658391678</v>
+        <v>0.04010885760722644</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H14">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I14">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J14">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>45.5888626192136</v>
+        <v>46.33695966666667</v>
       </c>
       <c r="N14">
-        <v>45.5888626192136</v>
+        <v>139.010879</v>
       </c>
       <c r="O14">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="P14">
-        <v>0.2063436726689966</v>
+        <v>0.1993490803952133</v>
       </c>
       <c r="Q14">
-        <v>1633.786037992721</v>
+        <v>2086.398976268656</v>
       </c>
       <c r="R14">
-        <v>1633.786037992721</v>
+        <v>18777.59078641791</v>
       </c>
       <c r="S14">
-        <v>0.03031541670407543</v>
+        <v>0.03283757803294718</v>
       </c>
       <c r="T14">
-        <v>0.03031541670407543</v>
+        <v>0.03283757803294717</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H15">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I15">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J15">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.0659401251386</v>
+        <v>84.50960033333332</v>
       </c>
       <c r="N15">
-        <v>84.0659401251386</v>
+        <v>253.528801</v>
       </c>
       <c r="O15">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="P15">
-        <v>0.3804980829787653</v>
+        <v>0.3635739425333109</v>
       </c>
       <c r="Q15">
-        <v>3012.704229855004</v>
+        <v>3805.185857871023</v>
       </c>
       <c r="R15">
-        <v>3012.704229855004</v>
+        <v>34246.6727208392</v>
       </c>
       <c r="S15">
-        <v>0.05590167990809577</v>
+        <v>0.05988935431763608</v>
       </c>
       <c r="T15">
-        <v>0.05590167990809577</v>
+        <v>0.05988935431763607</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H16">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I16">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J16">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>64.79357614970181</v>
+        <v>72.52790466666666</v>
       </c>
       <c r="N16">
-        <v>64.79357614970181</v>
+        <v>217.583714</v>
       </c>
       <c r="O16">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="P16">
-        <v>0.2932677785747839</v>
+        <v>0.3120267536390091</v>
       </c>
       <c r="Q16">
-        <v>2322.032926094242</v>
+        <v>3265.690005041491</v>
       </c>
       <c r="R16">
-        <v>2322.032926094242</v>
+        <v>29391.21004537342</v>
       </c>
       <c r="S16">
-        <v>0.04308605540638374</v>
+        <v>0.05139829514475239</v>
       </c>
       <c r="T16">
-        <v>0.04308605540638374</v>
+        <v>0.05139829514475237</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H17">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I17">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J17">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>26.4881879002395</v>
+        <v>29.06683666666666</v>
       </c>
       <c r="N17">
-        <v>26.4881879002395</v>
+        <v>87.20050999999998</v>
       </c>
       <c r="O17">
-        <v>0.1198904657774543</v>
+        <v>0.1250502234324667</v>
       </c>
       <c r="P17">
-        <v>0.1198904657774543</v>
+        <v>0.1250502234324667</v>
       </c>
       <c r="Q17">
-        <v>949.2676297850907</v>
+        <v>1308.782852844954</v>
       </c>
       <c r="R17">
-        <v>949.2676297850907</v>
+        <v>11779.04567560459</v>
       </c>
       <c r="S17">
-        <v>0.01761396112552239</v>
+        <v>0.02059877307615464</v>
       </c>
       <c r="T17">
-        <v>0.01761396112552239</v>
+        <v>0.02059877307615464</v>
       </c>
     </row>
   </sheetData>
